--- a/4-from-pivots-to-aggregation/group-by-demo.xlsx
+++ b/4-from-pivots-to-aggregation/group-by-demo.xlsx
@@ -1,222 +1,233 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\sql-for-excel-users\4-from-pivots-to-aggregation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8841583B-EAB8-4A12-B550-127AB201FCB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12651"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="grouped-aggregation-demo" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+  <si>
+    <t>empno</t>
+  </si>
+  <si>
+    <t>ename</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>mgr</t>
+  </si>
+  <si>
+    <t>hiredate</t>
+  </si>
+  <si>
+    <t>sal</t>
+  </si>
+  <si>
+    <t>conm</t>
+  </si>
+  <si>
+    <t>deptno</t>
+  </si>
+  <si>
+    <t>dept_title</t>
+  </si>
+  <si>
+    <t>locno</t>
+  </si>
+  <si>
+    <t>SCOTT</t>
+  </si>
+  <si>
+    <t>MANAGER</t>
+  </si>
+  <si>
+    <t>MANAGEMENT</t>
+  </si>
+  <si>
+    <t>SCHRUTE</t>
+  </si>
+  <si>
+    <t>ASST TO REGINONAL MANAGER</t>
+  </si>
+  <si>
+    <t>SALES</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Max of sal</t>
+  </si>
+  <si>
+    <t>Sum of sal</t>
+  </si>
+  <si>
+    <t>HALPERT</t>
+  </si>
+  <si>
+    <t>SALESPERSON</t>
+  </si>
+  <si>
+    <t>"Sum and maximum of salary, grouped by department."</t>
+  </si>
+  <si>
+    <t>BEESLY</t>
+  </si>
+  <si>
+    <t>SECRETARY</t>
+  </si>
+  <si>
+    <t>OPERATIONS</t>
+  </si>
+  <si>
+    <t>HOWARD</t>
+  </si>
+  <si>
+    <t>TEMP</t>
+  </si>
+  <si>
+    <t>BERNARD</t>
+  </si>
+  <si>
+    <t>LEVINSON</t>
+  </si>
+  <si>
+    <t>VP SALES</t>
+  </si>
+  <si>
+    <t>HUDSON</t>
+  </si>
+  <si>
+    <t>MALONE</t>
+  </si>
+  <si>
+    <t>ACCOUNTANT</t>
+  </si>
   <si>
     <t>ACCOUNTING</t>
   </si>
   <si>
-    <t>SALES</t>
-  </si>
-  <si>
-    <t>OPERATIONS</t>
-  </si>
-  <si>
-    <t>deptno</t>
-  </si>
-  <si>
-    <t>locno</t>
-  </si>
-  <si>
-    <t>MANAGER</t>
+    <t>PALMER</t>
+  </si>
+  <si>
+    <t>SUPPLIER RELATIONS REP</t>
+  </si>
+  <si>
+    <t>SUPPLIER RELATIONS</t>
   </si>
   <si>
     <t>MARTIN</t>
   </si>
   <si>
-    <t>SCOTT</t>
-  </si>
-  <si>
-    <t>empno</t>
-  </si>
-  <si>
-    <t>ename</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>mgr</t>
-  </si>
-  <si>
-    <t>hiredate</t>
-  </si>
-  <si>
-    <t>sal</t>
-  </si>
-  <si>
-    <t>conm</t>
-  </si>
-  <si>
-    <t>SCHRUTE</t>
-  </si>
-  <si>
-    <t>HALPERT</t>
-  </si>
-  <si>
-    <t>BEESLY</t>
-  </si>
-  <si>
-    <t>HOWARD</t>
-  </si>
-  <si>
-    <t>BERNARD</t>
-  </si>
-  <si>
-    <t>LEVINSON</t>
-  </si>
-  <si>
-    <t>HUDSON</t>
-  </si>
-  <si>
-    <t>MALONE</t>
-  </si>
-  <si>
-    <t>PALMER</t>
+    <t>DIRECTOR ACCOUNTING</t>
   </si>
   <si>
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>SENIOR ACCOUNTANT</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
     <t>LAPIN</t>
   </si>
   <si>
     <t>KAPOOR</t>
   </si>
   <si>
+    <t>CUSTOMER RELATIONS REP</t>
+  </si>
+  <si>
+    <t>CUSTOMER RELATIONS</t>
+  </si>
+  <si>
     <t>FLENDERSON</t>
   </si>
   <si>
+    <t>HUMAN RESOURCES REP</t>
+  </si>
+  <si>
+    <t>HUMAN RESOURCES</t>
+  </si>
+  <si>
     <t>FILIPPELLI</t>
   </si>
   <si>
+    <t>Values</t>
+  </si>
+  <si>
     <t>BRATTON</t>
   </si>
   <si>
+    <t>QUABITY ASSUWANCE</t>
+  </si>
+  <si>
+    <t>QUALITY ASSURANCE</t>
+  </si>
+  <si>
+    <t>Average of sal2</t>
+  </si>
+  <si>
     <t>PHILBIN</t>
   </si>
   <si>
+    <t>FOREMAN</t>
+  </si>
+  <si>
+    <t>LOGISTICS</t>
+  </si>
+  <si>
     <t>WALLACE</t>
   </si>
   <si>
-    <t>ASST TO REGINONAL MANAGER</t>
-  </si>
-  <si>
-    <t>TEMP</t>
-  </si>
-  <si>
-    <t>SALESPERSON</t>
-  </si>
-  <si>
-    <t>VP SALES</t>
-  </si>
-  <si>
-    <t>ACCOUNTANT</t>
-  </si>
-  <si>
-    <t>SUPPLIER RELATIONS REP</t>
-  </si>
-  <si>
-    <t>DIRECTOR ACCOUNTING</t>
-  </si>
-  <si>
-    <t>SENIOR ACCOUNTANT</t>
-  </si>
-  <si>
-    <t>CUSTOMER RELATIONS REP</t>
+    <t>CHIEF FINANCIAL OFFICER</t>
   </si>
   <si>
     <t>BRAND</t>
   </si>
   <si>
-    <t>HUMAN RESOURCES REP</t>
-  </si>
-  <si>
-    <t>QUABITY ASSUWANCE</t>
-  </si>
-  <si>
-    <t>FOREMAN</t>
-  </si>
-  <si>
-    <t>SECRETARY</t>
-  </si>
-  <si>
-    <t>CHIEF FINANCIAL OFFICER</t>
-  </si>
-  <si>
     <t>CHIEF EXECUTIVE OFFICER</t>
-  </si>
-  <si>
-    <t>dept_title</t>
-  </si>
-  <si>
-    <t>CUSTOMER RELATIONS</t>
-  </si>
-  <si>
-    <t>HUMAN RESOURCES</t>
-  </si>
-  <si>
-    <t>LOGISTICS</t>
-  </si>
-  <si>
-    <t>MANAGEMENT</t>
-  </si>
-  <si>
-    <t>QUALITY ASSURANCE</t>
-  </si>
-  <si>
-    <t>SUPPLIER RELATIONS</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Max of sal</t>
-  </si>
-  <si>
-    <t>Sum of sal</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Average of sal2</t>
-  </si>
-  <si>
-    <t>"Sum and maximum of salary, grouped by department."</t>
-  </si>
-  <si>
-    <t>"Maximum, sum and average of salary, grouped by location and department."</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,27 +257,172 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="15">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD23338"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="2" defaultTableStyle="Stringfest" defaultPivotStyle="Stringfest_Pivot">
+    <tableStyle name="Stringfest" pivot="0" count="3" xr9:uid="{80757AD5-BA57-4B3B-81C1-A3519B7631A7}">
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="totalRow" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+    </tableStyle>
+    <tableStyle name="Stringfest_Pivot" table="0" count="10" xr9:uid="{E4F46EAF-081F-4FE3-B38A-4D174B16E75D}">
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="totalRow" dxfId="10"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="9"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="8"/>
+      <tableStyleElement type="thirdSubtotalRow" dxfId="7"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="6"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="5"/>
+      <tableStyleElement type="thirdRowSubheading" dxfId="4"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="3"/>
+      <tableStyleElement type="pageFieldValues" dxfId="2"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFD23338"/>
+      <color rgb="FFFB3338"/>
+      <color rgb="FF3D3935"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -279,7 +435,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="43684.746713194443" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Author" refreshedDate="43684.746713194443" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20" xr:uid="{FE7C71FC-7D25-47BB-B423-AF491AC8684B}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table25" r:id="rId2"/>
   </cacheSource>
@@ -338,7 +494,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="20">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
   <r>
     <n v="9759"/>
     <s v="SCOTT"/>
@@ -583,7 +739,97 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B64A8D0-BCDB-425D-A70A-8E043E8D6A17}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M3:O13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Max of sal" fld="5" subtotal="max" baseField="7" baseItem="7"/>
+    <dataField name="Sum of sal" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9ECBC689-48D3-4643-8A0B-5F8994708C3D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="M17:Q30" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="10">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -690,100 +936,16 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M3:O13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="3"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Max of sal" fld="5" subtotal="max" baseField="7" baseItem="7"/>
-    <dataField name="Sum of sal" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table25" displayName="Table25" ref="A1:J21" totalsRowShown="0">
-  <autoFilter ref="A1:J21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4F5A954-542D-435F-9217-5F3BB9122205}" name="Table25" displayName="Table25" ref="A1:J21" totalsRowShown="0">
+  <autoFilter ref="A1:J21" xr:uid="{E176908B-8F7E-474D-B715-E85B1644A7E0}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -796,16 +958,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="empno"/>
-    <tableColumn id="2" name="ename"/>
-    <tableColumn id="3" name="job"/>
-    <tableColumn id="4" name="mgr"/>
-    <tableColumn id="5" name="hiredate" dataDxfId="1"/>
-    <tableColumn id="6" name="sal"/>
-    <tableColumn id="7" name="conm"/>
-    <tableColumn id="8" name="deptno"/>
-    <tableColumn id="9" name="dept_title"/>
-    <tableColumn id="10" name="locno" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{51110FBE-D927-47E4-80E6-84A7A1940943}" name="empno"/>
+    <tableColumn id="2" xr3:uid="{AC7E18F7-8B92-4637-95F5-B679BEA1F342}" name="ename"/>
+    <tableColumn id="3" xr3:uid="{E749F9FF-3070-45D1-8257-D2D317E65885}" name="job"/>
+    <tableColumn id="4" xr3:uid="{42E67BE6-0AD7-4ED7-9685-7909584D8D8A}" name="mgr"/>
+    <tableColumn id="5" xr3:uid="{409D4FC0-AF3A-491E-90CD-65A981FEC2E3}" name="hiredate" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{930E2517-C088-4138-B9AC-85BC2B184F6A}" name="sal"/>
+    <tableColumn id="7" xr3:uid="{4D005E33-60A8-4BD0-B779-B1690D25EAA6}" name="conm"/>
+    <tableColumn id="8" xr3:uid="{12C5DEEF-2452-4B77-93D7-C6DD2E6742EC}" name="deptno"/>
+    <tableColumn id="9" xr3:uid="{4C051E12-215E-4DB3-A13A-65A13E0863F5}" name="dept_title"/>
+    <tableColumn id="10" xr3:uid="{79F602FF-C024-430D-8792-07E4A05866FA}" name="locno" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -814,7 +976,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Stringfest">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -828,22 +990,22 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="D93644"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="D97179"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="F2B3B9"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="403C38"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="D8D8D8"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F2F2F2"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0563C1"/>
@@ -887,6 +1049,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -922,6 +1101,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1073,75 +1269,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A21CF2-F045-4933-8F09-4E42461A7DCE}">
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.84375" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="27.4609375" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9.69140625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="10.53515625" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="8.84375" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="20.3046875" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="7.53515625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="12.3828125" customWidth="1"/>
-    <col min="14" max="14" width="9.07421875" customWidth="1"/>
-    <col min="15" max="15" width="9.3828125" customWidth="1"/>
-    <col min="16" max="16" width="9.3046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9759</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>3710</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>34480</v>
       </c>
       <c r="F2">
@@ -1151,26 +1337,26 @@
         <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5156</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>9759</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>36841</v>
       </c>
       <c r="F3">
@@ -1180,35 +1366,35 @@
         <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1">
         <v>3</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9844</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>9759</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>36951</v>
       </c>
       <c r="F4">
@@ -1218,38 +1404,38 @@
         <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>3</v>
-      </c>
-      <c r="M4" s="2">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
         <v>10</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4">
         <v>1600</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4">
         <v>4000</v>
       </c>
       <c r="Q4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4965</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>9759</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>36720</v>
       </c>
       <c r="F5">
@@ -1259,35 +1445,35 @@
         <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2">
-        <v>3</v>
-      </c>
-      <c r="M5" s="2">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
         <v>20</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5">
         <v>1300</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5">
         <v>1300</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5262</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>9759</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>38435</v>
       </c>
       <c r="F6">
@@ -1297,35 +1483,35 @@
         <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="2">
-        <v>3</v>
-      </c>
-      <c r="M6" s="2">
+        <v>24</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1">
         <v>30</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6">
         <v>1750</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6">
         <v>1750</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1403</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>9759</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>37786</v>
       </c>
       <c r="F7">
@@ -1335,35 +1521,35 @@
         <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1">
         <v>40</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7">
         <v>1500</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7">
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8215</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>2029</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>37437</v>
       </c>
       <c r="F8">
@@ -1373,35 +1559,35 @@
         <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="2">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>50</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8">
         <v>5000</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8">
         <v>14400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9735</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>9759</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>35929</v>
       </c>
       <c r="F9">
@@ -1411,35 +1597,35 @@
         <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>3</v>
-      </c>
-      <c r="M9" s="2">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
         <v>60</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9">
         <v>1300</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9">
         <v>2200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7870</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>3304</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>36496</v>
       </c>
       <c r="F10">
@@ -1449,35 +1635,35 @@
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>3</v>
-      </c>
-      <c r="M10" s="2">
+        <v>33</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1">
         <v>70</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10">
         <v>1300</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4460</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>9759</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>35915</v>
       </c>
       <c r="F11">
@@ -1487,27 +1673,27 @@
         <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="2">
-        <v>3</v>
-      </c>
-      <c r="M11" s="2">
+        <v>36</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1">
         <v>80</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11">
         <v>1500</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11">
         <v>7500</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3304</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -1515,7 +1701,7 @@
       <c r="D12">
         <v>9759</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>35151</v>
       </c>
       <c r="F12">
@@ -1525,35 +1711,35 @@
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>3</v>
-      </c>
-      <c r="M12" s="2">
+        <v>33</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1">
         <v>90</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12">
         <v>1300</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12">
         <v>1300</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6811</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>3304</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>36431</v>
       </c>
       <c r="F13">
@@ -1563,35 +1749,35 @@
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>3</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="4">
+        <v>33</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13">
         <v>5000</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13">
         <v>35250</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9909</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>9759</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>33037</v>
       </c>
       <c r="F14">
@@ -1601,26 +1787,26 @@
         <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6395</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>9759</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>37276</v>
       </c>
       <c r="F15">
@@ -1630,26 +1816,26 @@
         <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4858</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D16">
         <v>7852</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>34444</v>
       </c>
       <c r="F16">
@@ -1659,26 +1845,26 @@
         <v>30</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8514</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>2029</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>37562</v>
       </c>
       <c r="F17">
@@ -1688,29 +1874,29 @@
         <v>50</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="2">
+        <v>12</v>
+      </c>
+      <c r="J17" s="1">
         <v>2</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="O17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4518</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D18">
         <v>9759</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>32704</v>
       </c>
       <c r="F18">
@@ -1722,42 +1908,40 @@
       <c r="I18" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" t="s">
-        <v>57</v>
-      </c>
-      <c r="P18" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>60</v>
-      </c>
-      <c r="S18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3891</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D19">
         <v>9759</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>35693</v>
       </c>
       <c r="F19">
@@ -1767,9 +1951,9 @@
         <v>40</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="2">
+        <v>57</v>
+      </c>
+      <c r="J19" s="1">
         <v>3</v>
       </c>
       <c r="M19">
@@ -1778,30 +1962,30 @@
       <c r="N19">
         <v>50</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19">
         <v>5000</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19">
         <v>10500</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19">
         <v>3500</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2029</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D20">
         <v>7852</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>36235</v>
       </c>
       <c r="F20">
@@ -1811,9 +1995,9 @@
         <v>50</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="2">
+        <v>12</v>
+      </c>
+      <c r="J20" s="1">
         <v>1</v>
       </c>
       <c r="M20">
@@ -1822,30 +2006,30 @@
       <c r="N20">
         <v>50</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20">
         <v>2000</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20">
         <v>2000</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>7852</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D21">
         <v>7852</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>32132</v>
       </c>
       <c r="F21">
@@ -1855,9 +2039,9 @@
         <v>50</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" s="2">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1">
         <v>1</v>
       </c>
       <c r="M21">
@@ -1866,165 +2050,180 @@
       <c r="N21">
         <v>10</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21">
         <v>1600</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21">
         <v>4000</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21">
         <v>1333.3333333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
       <c r="M22">
         <v>3</v>
       </c>
       <c r="N22">
         <v>20</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22">
         <v>1300</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22">
         <v>1300</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22">
         <v>1300</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
       <c r="M23">
         <v>3</v>
       </c>
       <c r="N23">
         <v>30</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23">
         <v>1750</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23">
         <v>1750</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23">
         <v>1750</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
       <c r="M24">
         <v>3</v>
       </c>
       <c r="N24">
         <v>40</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24">
         <v>1500</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24">
         <v>1500</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
       <c r="M25">
         <v>3</v>
       </c>
       <c r="N25">
         <v>50</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25">
         <v>1900</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25">
         <v>1900</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25">
         <v>1900</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
       <c r="M26">
         <v>3</v>
       </c>
       <c r="N26">
         <v>60</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26">
         <v>1300</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26">
         <v>2200</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26">
         <v>1100</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
       <c r="M27">
         <v>3</v>
       </c>
       <c r="N27">
         <v>70</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27">
         <v>1300</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27">
         <v>1300</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27">
         <v>1300</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
       <c r="M28">
         <v>3</v>
       </c>
       <c r="N28">
         <v>80</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28">
         <v>1500</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28">
         <v>7500</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28">
         <v>1500</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
       <c r="M29">
         <v>3</v>
       </c>
       <c r="N29">
         <v>90</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29">
         <v>1300</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29">
         <v>1300</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29">
         <v>1300</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
       <c r="M30" t="s">
-        <v>56</v>
-      </c>
-      <c r="O30" s="4">
+        <v>41</v>
+      </c>
+      <c r="O30">
         <v>5000</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30">
         <v>35250</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q30">
         <v>1762.5</v>
       </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2032,4 +2231,28 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E434C7-3094-4F14-A308-A7F518F9B546}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B116CE7A-A59D-45ED-8D2B-8BC95BB52201}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>